--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NORTH_CAROLINA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NORTH_CAROLINA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1701"/>
+  <dimension ref="A1:D1695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -804,7 +804,7 @@
         <v>24</v>
       </c>
       <c r="D32">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="33">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C51">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C76">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C77">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C84">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C93">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C94">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C129">
@@ -2102,7 +2102,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C132">
@@ -2206,7 +2206,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C140">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C143">
@@ -2471,7 +2471,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C160">
@@ -2658,7 +2658,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C174">
@@ -2684,7 +2684,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C180">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C194">
@@ -3084,7 +3084,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C206">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C210">
@@ -3214,7 +3214,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C216">
@@ -3227,7 +3227,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C217">
@@ -3240,7 +3240,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C218">
@@ -3357,12 +3357,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C227">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C232">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C238">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C242">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C246">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C252">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C259">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C273">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C283">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C285">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C294">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C306">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C311">
@@ -4467,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C312">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C313">
@@ -4622,7 +4622,7 @@
         <v>24</v>
       </c>
       <c r="D323">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="324">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C326">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C327">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C335">
@@ -4823,7 +4823,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C339">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C347">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C351">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C353">
@@ -5031,7 +5031,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C355">
@@ -5057,7 +5057,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C357">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C358">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C363">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C369">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C372">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C376">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C380">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C384">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C386">
@@ -5472,7 +5472,7 @@
         <v>24</v>
       </c>
       <c r="D388">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="389">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C391">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C392">
@@ -5569,7 +5569,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C396">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C397">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C403">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C404">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C409">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C412">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C425">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C427">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C429">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C431">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C435">
@@ -6089,7 +6089,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C436">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C447">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C453">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C454">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C460">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C463">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C466">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C469">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C473">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C474">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C475">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C476">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C478">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C480">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C483">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C489">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C490">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C494">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C497">
@@ -6926,7 +6926,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C500">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C509">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C510">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C511">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C515">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C516">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C521">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C525">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C527">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C542">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C548">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C554">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C560">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C565">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C567">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C569">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C571">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C574">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C575">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C577">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C582">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C585">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C594">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C595">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C600">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C601">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C604">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C605">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C606">
@@ -8425,7 +8425,7 @@
         <v>24</v>
       </c>
       <c r="D614">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="615">
@@ -9036,7 +9036,7 @@
         <v>24</v>
       </c>
       <c r="D661">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="662">
@@ -9406,7 +9406,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C690">
@@ -9723,14 +9723,14 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C714">
         <v>24</v>
       </c>
       <c r="D714">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="715">
@@ -9814,7 +9814,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C721">
@@ -9866,7 +9866,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C725">
@@ -9944,7 +9944,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C731">
@@ -10079,7 +10079,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C741">
@@ -10118,7 +10118,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C744">
@@ -10209,7 +10209,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C751">
@@ -10422,7 +10422,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C767">
@@ -10435,7 +10435,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C768">
@@ -10461,7 +10461,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C770">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C774">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C778">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C783">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C784">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C788">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C795">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C798">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C806">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C809">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C814">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C817">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C834">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C841">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C851">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C856">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C874">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C882">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C913">
@@ -12520,7 +12520,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C928">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C929">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C948">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C955">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C990">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1013">
@@ -13638,7 +13638,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1014">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1016">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1027">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1035">
@@ -14613,7 +14613,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1089">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1106">
@@ -14847,7 +14847,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1107">
@@ -14860,7 +14860,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1108">
@@ -14873,7 +14873,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1109">
@@ -14886,7 +14886,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1110">
@@ -14912,7 +14912,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1112">
@@ -14925,14 +14925,14 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1113">
         <v>24</v>
       </c>
       <c r="D1113">
-        <v>0.0009764433052605883</v>
+        <v>0.0009764433052605884</v>
       </c>
     </row>
     <row r="1114">
@@ -14977,7 +14977,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1117">
@@ -14990,7 +14990,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1118">
@@ -15003,7 +15003,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1119">
@@ -15016,7 +15016,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1120">
@@ -15029,7 +15029,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1121">
@@ -15055,7 +15055,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1123">
@@ -15068,7 +15068,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1124">
@@ -15094,7 +15094,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1126">
@@ -15133,7 +15133,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1129">
@@ -15153,7 +15153,7 @@
         <v>2259</v>
       </c>
       <c r="D1130">
-        <v>0.09190772610765287</v>
+        <v>0.09190772610765288</v>
       </c>
     </row>
     <row r="1131">
@@ -15437,7 +15437,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1152">
@@ -15554,7 +15554,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1161">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1178">
@@ -15814,7 +15814,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1181">
@@ -15840,7 +15840,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1183">
@@ -15879,7 +15879,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1186">
@@ -15983,7 +15983,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1194">
@@ -16100,7 +16100,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1203">
@@ -16347,7 +16347,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1222">
@@ -16360,7 +16360,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1223">
@@ -16438,7 +16438,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1229">
@@ -16516,7 +16516,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1235">
@@ -16529,7 +16529,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1236">
@@ -16607,7 +16607,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1242">
@@ -16633,7 +16633,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1244">
@@ -16646,7 +16646,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1245">
@@ -16698,7 +16698,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1249">
@@ -16854,7 +16854,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1261">
@@ -16906,7 +16906,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1265">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1279">
@@ -17119,7 +17119,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1281">
@@ -17197,7 +17197,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1287">
@@ -17210,7 +17210,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1288">
@@ -17249,7 +17249,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1291">
@@ -17288,7 +17288,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1294">
@@ -17467,7 +17467,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1307">
@@ -17519,7 +17519,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1311">
@@ -17649,7 +17649,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1321">
@@ -17727,7 +17727,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1327">
@@ -17792,7 +17792,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1332">
@@ -17818,7 +17818,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1334">
@@ -17909,7 +17909,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1341">
@@ -17961,7 +17961,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1345">
@@ -17974,7 +17974,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1346">
@@ -17987,7 +17987,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1347">
@@ -18000,7 +18000,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1348">
@@ -18013,7 +18013,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1349">
@@ -18574,7 +18574,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1391">
@@ -19060,7 +19060,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1428">
@@ -19182,7 +19182,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1437">
@@ -19299,7 +19299,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1446">
@@ -19338,7 +19338,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1449">
@@ -19377,7 +19377,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1452">
@@ -19390,7 +19390,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1453">
@@ -19455,7 +19455,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1458">
@@ -19681,7 +19681,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1475">
@@ -19733,7 +19733,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1479">
@@ -19837,7 +19837,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1487">
@@ -19902,7 +19902,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1492">
@@ -20123,7 +20123,7 @@
     <row r="1509">
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1509">
@@ -20136,7 +20136,7 @@
     <row r="1510">
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1510">
@@ -20344,7 +20344,7 @@
     <row r="1526">
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1526">
@@ -20357,7 +20357,7 @@
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1527">
@@ -20409,7 +20409,7 @@
     <row r="1531">
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1531">
@@ -20422,7 +20422,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1532">
@@ -20435,7 +20435,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1533">
@@ -20578,7 +20578,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1544">
@@ -20617,7 +20617,7 @@
     <row r="1547">
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1547">
@@ -20669,7 +20669,7 @@
     <row r="1551">
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1551">
@@ -20695,7 +20695,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1553">
@@ -20747,7 +20747,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1557">
@@ -20877,7 +20877,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1567">
@@ -20929,7 +20929,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1571">
@@ -20942,7 +20942,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1572">
@@ -20994,7 +20994,7 @@
     <row r="1576">
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1576">
@@ -21111,7 +21111,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1585">
@@ -21150,7 +21150,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1588">
@@ -21228,7 +21228,7 @@
     <row r="1594">
       <c r="B1594" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1594">
@@ -21488,7 +21488,7 @@
     <row r="1614">
       <c r="B1614" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1614">
@@ -21657,7 +21657,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1627">
@@ -21800,7 +21800,7 @@
     <row r="1638">
       <c r="B1638" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1638">
@@ -21813,7 +21813,7 @@
     <row r="1639">
       <c r="B1639" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1639">
@@ -22018,7 +22018,7 @@
     <row r="1654">
       <c r="B1654" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1654">
@@ -22135,7 +22135,7 @@
     <row r="1663">
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1663">
@@ -22226,7 +22226,7 @@
     <row r="1670">
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1670">
@@ -22265,7 +22265,7 @@
     <row r="1673">
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1673">
@@ -22278,7 +22278,7 @@
     <row r="1674">
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1674">
@@ -22291,7 +22291,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1675">
@@ -22421,7 +22421,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1685">
@@ -22460,7 +22460,7 @@
     <row r="1688">
       <c r="B1688" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1688">
@@ -22559,41 +22559,6 @@
       </c>
       <c r="D1695">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
